--- a/biology/Microbiologie/Milieu_Rothe/Milieu_Rothe.xlsx
+++ b/biology/Microbiologie/Milieu_Rothe/Milieu_Rothe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu de Rothe est un milieu de culture utilisé pour l'enrichissement en Enterococcus (microbiologie alimentaire).
 </t>
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">peptone : 20,0 g
 glucose : 5,0 g
@@ -548,7 +562,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">36,2 g par litre (simple concentration) ou 72,4 (double concentration). Autoclavage classique.
 </t>
@@ -579,7 +595,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu permet l'enrichissement en Entérocoques d'un inoculum de produit alimentaire. Un trouble signe la présence éventuelle de ces bactéries qu'il faudra ensuite confirmer par le test de Litsky, l'isolement et l'identification des colonies.
  Portail de la microbiologie                     </t>
